--- a/biology/Médecine/Ali_Mrabet_(homme_politique)/Ali_Mrabet_(homme_politique).xlsx
+++ b/biology/Médecine/Ali_Mrabet_(homme_politique)/Ali_Mrabet_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ali Mrabet (arabe : علي مرابط), né le 28 octobre 1963[1], est un médecin militaire, professeur et homme politique tunisien, ministre de la Santé depuis 2021.
+Ali Mrabet (arabe : علي مرابط), né le 28 octobre 1963, est un médecin militaire, professeur et homme politique tunisien, ministre de la Santé depuis 2021.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de la faculté de médecine de Tunis et de l'Institut de médecine tropicale du service de santé des armées en France, il devient professeur en épidémiologie et santé publique[2].
-Il est par ailleurs coordinateur du master de santé publique à la faculté de médecine de Tunis et membre du comité des thèses au sein du même établissement[2]. 
-Il est spécialisé dans la prévention des maladies du voyageur, les vaccinations de masse, l'éducation sanitaire et la lutte contre les infections sexuellement transmissibles[2]. Il a dirigé à ce titre la campagne mobile de vaccination anti-Covid 19 menée par la santé militaire au profit de la population du gouvernorat de Tataouine en juillet 2021[1].
-Il a pris part, entre 2001 et 2002, à une mission de maintien de la paix en République démocratique du Congo et a été déployé, en 1999, dans un camp de réfugiés kosovars en Albanie et, en 2011, au camp de réfugiés de Choucha[1].
-Ali Mrabet est membre du comité de bioéthique de l'Institut Pasteur de Tunis et de comités de rédaction et de lecture de plusieurs revues médicales nationales et internationales[1].
-Le 6 août 2021, il est nommé par le président Kaïs Saïed comme ministre de la Santé par intérim avant de devenir ministre de plein droit le 11 octobre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de la faculté de médecine de Tunis et de l'Institut de médecine tropicale du service de santé des armées en France, il devient professeur en épidémiologie et santé publique.
+Il est par ailleurs coordinateur du master de santé publique à la faculté de médecine de Tunis et membre du comité des thèses au sein du même établissement. 
+Il est spécialisé dans la prévention des maladies du voyageur, les vaccinations de masse, l'éducation sanitaire et la lutte contre les infections sexuellement transmissibles. Il a dirigé à ce titre la campagne mobile de vaccination anti-Covid 19 menée par la santé militaire au profit de la population du gouvernorat de Tataouine en juillet 2021.
+Il a pris part, entre 2001 et 2002, à une mission de maintien de la paix en République démocratique du Congo et a été déployé, en 1999, dans un camp de réfugiés kosovars en Albanie et, en 2011, au camp de réfugiés de Choucha.
+Ali Mrabet est membre du comité de bioéthique de l'Institut Pasteur de Tunis et de comités de rédaction et de lecture de plusieurs revues médicales nationales et internationales.
+Le 6 août 2021, il est nommé par le président Kaïs Saïed comme ministre de la Santé par intérim avant de devenir ministre de plein droit le 11 octobre.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est marié et père d'un enfant[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié et père d'un enfant.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille des Nations unies en 2003[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille des Nations unies en 2003.</t>
         </is>
       </c>
     </row>
